--- a/Trabalho_sobre Ordenação/Planilha de Comparacao entre os algoritmos.xlsx
+++ b/Trabalho_sobre Ordenação/Planilha de Comparacao entre os algoritmos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HomePC\Desktop\LinguagemDeProgramacao\Trabalho_sobre Ordenação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC04865-BC6D-4F6C-91FD-F97490AC49AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE8538C9-A9BC-4FD6-886A-7E9887DD2166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="15600" firstSheet="1" activeTab="6" xr2:uid="{9F3FC6C8-DA12-47C2-AE9C-5965ACF80B5A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="6" xr2:uid="{9F3FC6C8-DA12-47C2-AE9C-5965ACF80B5A}"/>
   </bookViews>
   <sheets>
     <sheet name="Bubble" sheetId="1" r:id="rId1"/>
@@ -42,12 +42,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="11">
   <si>
     <t>Elementos</t>
   </si>
   <si>
     <t>Tempo(s)</t>
+  </si>
+  <si>
+    <t>Tempo para 1000</t>
+  </si>
+  <si>
+    <t>Bubble</t>
+  </si>
+  <si>
+    <t>Insert</t>
+  </si>
+  <si>
+    <t>Select</t>
+  </si>
+  <si>
+    <t>Shell</t>
+  </si>
+  <si>
+    <t>Quick</t>
+  </si>
+  <si>
+    <t>Counting</t>
+  </si>
+  <si>
+    <t>Tempo para 100000</t>
+  </si>
+  <si>
+    <t>Tempo para 1000000</t>
   </si>
 </sst>
 </file>
@@ -55,10 +82,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="167" formatCode="0.000"/>
-    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,16 +101,43 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF666666"/>
+        <bgColor rgb="FF666666"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -91,24 +145,51 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="24">
     <dxf>
-      <numFmt numFmtId="167" formatCode="0.000"/>
+      <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
@@ -120,7 +201,7 @@
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="0.000"/>
+      <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
@@ -132,7 +213,7 @@
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="0.000"/>
+      <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
@@ -144,22 +225,10 @@
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.000"/>
+      <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -168,10 +237,22 @@
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -297,6 +378,20 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Bubble!$A$2:$A$4</c:f>
@@ -520,6 +615,630 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.3570018389526305E-2"/>
+          <c:y val="0.10302767386044069"/>
+          <c:w val="0.76823288151183189"/>
+          <c:h val="0.77362970253718288"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Comparativo!$B$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tempo para 1000000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:noFill/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-6A10-4B68-9D0F-473317E482EC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:noFill/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-6A10-4B68-9D0F-473317E482EC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent3"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:noFill/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-6A10-4B68-9D0F-473317E482EC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent4"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:noFill/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-6A10-4B68-9D0F-473317E482EC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent5"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:noFill/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-6A10-4B68-9D0F-473317E482EC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent6"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:noFill/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-6A10-4B68-9D0F-473317E482EC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Comparativo!$A$18:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Bubble</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Insert</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Select</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Counting</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Shell</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Quick</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Comparativo!$B$18:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>24080</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17970</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3812</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.35699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4890000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>120.24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-6A10-4B68-9D0F-473317E482EC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="156649040"/>
+        <c:axId val="181894800"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="156649040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Ordenadores</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:crossAx val="181894800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="181894800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Tempo em segundos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="156649040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -625,6 +1344,20 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Insercao!$A$2:$A$4</c:f>
@@ -1063,6 +1796,20 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Selecao!$A$2:$A$4</c:f>
@@ -1508,6 +2255,21 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Contagem!$A$2:$A$4</c:f>
@@ -1953,6 +2715,21 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Shell!$A$2:$A$4</c:f>
@@ -2426,6 +3203,21 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Quick!$A$2:$A$4</c:f>
@@ -2457,7 +3249,7 @@
                   <c:v>19.079999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>190.8</c:v>
+                  <c:v>120.24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3242,7 +4034,7 @@
                   <c:v>19.079999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>190.8</c:v>
+                  <c:v>120.24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3587,7 +4379,1295 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.3569958663685782E-2"/>
+          <c:y val="0.10302777777777779"/>
+          <c:w val="0.76823288151183189"/>
+          <c:h val="0.77362970253718288"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Comparativo!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tempo para 1000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:noFill/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000C-AB0D-47DE-BDBD-BCDE0ABACB98}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:noFill/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-AB0D-47DE-BDBD-BCDE0ABACB98}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent3"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:noFill/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000E-AB0D-47DE-BDBD-BCDE0ABACB98}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent4"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:noFill/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000010-AB0D-47DE-BDBD-BCDE0ABACB98}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent5"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:noFill/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-AB0D-47DE-BDBD-BCDE0ABACB98}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent6"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:noFill/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-AB0D-47DE-BDBD-BCDE0ABACB98}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Comparativo!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Bubble</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Insert</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Select</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Counting</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Shell</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Quick</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Comparativo!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-AB0D-47DE-BDBD-BCDE0ABACB98}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="156649040"/>
+        <c:axId val="181894800"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="156649040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Ordenadores</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:crossAx val="181894800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="181894800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Tempo em segundos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="156649040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.3570018389526305E-2"/>
+          <c:y val="0.10302767386044069"/>
+          <c:w val="0.76823288151183189"/>
+          <c:h val="0.77362970253718288"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Comparativo!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tempo para 100000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:noFill/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-F0EC-4AA9-A3F4-2973398BF4DF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:noFill/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-F0EC-4AA9-A3F4-2973398BF4DF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent3"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:noFill/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-F0EC-4AA9-A3F4-2973398BF4DF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent4"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:noFill/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-F0EC-4AA9-A3F4-2973398BF4DF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent5"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:noFill/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-F0EC-4AA9-A3F4-2973398BF4DF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent6"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:noFill/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-F0EC-4AA9-A3F4-2973398BF4DF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Comparativo!$A$10:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Bubble</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Insert</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Select</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Counting</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Shell</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Quick</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Comparativo!$B$10:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>239.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>180.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.72</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.4000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.11899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.079999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-F0EC-4AA9-A3F4-2973398BF4DF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="156649040"/>
+        <c:axId val="181894800"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="156649040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Ordenadores</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:crossAx val="181894800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="181894800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Tempo em segundos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="156649040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3867,6 +5947,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4383,7 +6543,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4899,7 +7059,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5415,7 +7575,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5931,7 +8091,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6447,7 +8607,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6963,7 +9123,1555 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7739,16 +11447,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>309562</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>488858</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>67234</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>560294</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7775,6 +11483,120 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>33615</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>537882</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>89646</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60F23746-EF47-44DE-BEA4-21422FD83739}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>549089</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>560295</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>100852</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Gráfico 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E297C2E-5F72-4B09-8941-3E7C7DA130A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>44823</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>100852</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>549089</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>190498</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Gráfico 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE2EC532-2F17-40AB-9877-E969232F7C01}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7782,30 +11604,30 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{73D96CDF-5877-4E5F-8A0C-B99D7FC3A66F}" name="Tabela1" displayName="Tabela1" ref="A1:B4" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
   <autoFilter ref="A1:B4" xr:uid="{73D96CDF-5877-4E5F-8A0C-B99D7FC3A66F}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{8EB710FF-26E6-4178-BD65-1A3789DEA17E}" name="Elementos" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{80FC5B0E-CC20-4E7D-A1F7-30A34708B48B}" name="Tempo(s)" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{8EB710FF-26E6-4178-BD65-1A3789DEA17E}" name="Elementos" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{80FC5B0E-CC20-4E7D-A1F7-30A34708B48B}" name="Tempo(s)" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6F457C1E-C493-40BD-84EB-7D6A5550AE70}" name="Tabela13" displayName="Tabela13" ref="A1:B4" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6F457C1E-C493-40BD-84EB-7D6A5550AE70}" name="Tabela13" displayName="Tabela13" ref="A1:B4" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="A1:B4" xr:uid="{6F457C1E-C493-40BD-84EB-7D6A5550AE70}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{260DDAAF-74C8-48E8-94A7-6A90BA9D3F79}" name="Elementos" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{82DC51BD-5122-4590-BB4F-72ECEA6923FF}" name="Tempo(s)" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{260DDAAF-74C8-48E8-94A7-6A90BA9D3F79}" name="Elementos" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{82DC51BD-5122-4590-BB4F-72ECEA6923FF}" name="Tempo(s)" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E3548256-A907-472B-91E8-FFD8C1DEAFA9}" name="Tabela134" displayName="Tabela134" ref="A1:B4" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E3548256-A907-472B-91E8-FFD8C1DEAFA9}" name="Tabela134" displayName="Tabela134" ref="A1:B4" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="A1:B4" xr:uid="{E3548256-A907-472B-91E8-FFD8C1DEAFA9}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{E858431B-1C2A-47F5-9B9A-3D26F9F1D12C}" name="Elementos" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{5827E8D6-BA89-4F0B-826A-5FD1787AACFC}" name="Tempo(s)" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{E858431B-1C2A-47F5-9B9A-3D26F9F1D12C}" name="Elementos" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{5827E8D6-BA89-4F0B-826A-5FD1787AACFC}" name="Tempo(s)" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8144,7 +11966,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8199,7 +12021,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8254,7 +12076,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8309,7 +12131,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8360,7 +12182,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8414,7 +12236,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8448,7 +12270,7 @@
         <v>1000000</v>
       </c>
       <c r="B4" s="2">
-        <v>190.8</v>
+        <v>120.24</v>
       </c>
     </row>
   </sheetData>
@@ -8462,14 +12284,201 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F03358C2-E074-4771-B99B-2988B0D26361}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P35" sqref="P35"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AD23" sqref="AD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="6"/>
+      <c r="B1" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="9">
+        <f>Bubble!B2</f>
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="9">
+        <f>Insercao!B2</f>
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="9">
+        <f>Selecao!B2</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="9">
+        <f>Contagem!B2</f>
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="9">
+        <f>Shell!B2</f>
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="9">
+        <f>Quick!B2</f>
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="9">
+        <f>Bubble!B3</f>
+        <v>239.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="9">
+        <f>Insercao!B3</f>
+        <v>180.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="9">
+        <f>Selecao!B3</f>
+        <v>36.72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="9">
+        <f>Contagem!B3</f>
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="9">
+        <f>Shell!B3</f>
+        <v>0.11899999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="9">
+        <f>Quick!B3</f>
+        <v>19.079999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="9">
+        <f>Bubble!B4</f>
+        <v>24080</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="9">
+        <f>Insercao!B4</f>
+        <v>17970</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="9">
+        <f>Selecao!B4</f>
+        <v>3812</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="9">
+        <f>Contagem!B4</f>
+        <v>0.35699999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="9">
+        <f>Shell!B4</f>
+        <v>1.4890000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="9">
+        <f>Quick!B4</f>
+        <v>120.24</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
 </worksheet>
